--- a/data/trans_orig/P2A_ner_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P2A_ner_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{296678DF-A1B9-4A14-8225-C816A265D6CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F0E1935-FD28-4A2F-9DD3-D9AA039CC0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CF566685-B4A8-486A-ABC1-45C145BDC365}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C0A8022B-3DFD-4520-AC7E-AB6DEB36D843}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="283">
-  <si>
-    <t>Hogares con personas con problemas de nervios, depresión o trastorno mental en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="287">
+  <si>
+    <t>Hogares según si tienen personas con problemas de nervios, depresión o trastorno mental en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -80,22 +80,22 @@
     <t>3,34%</t>
   </si>
   <si>
-    <t>5,8%</t>
+    <t>5,84%</t>
   </si>
   <si>
     <t>6,74%</t>
   </si>
   <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
   </si>
   <si>
     <t>5,73%</t>
   </si>
   <si>
-    <t>4,88%</t>
+    <t>4,77%</t>
   </si>
   <si>
     <t>6,67%</t>
@@ -107,7 +107,7 @@
     <t>95,56%</t>
   </si>
   <si>
-    <t>94,2%</t>
+    <t>94,16%</t>
   </si>
   <si>
     <t>96,66%</t>
@@ -116,10 +116,10 @@
     <t>93,26%</t>
   </si>
   <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
   </si>
   <si>
     <t>94,27%</t>
@@ -128,7 +128,7 @@
     <t>93,33%</t>
   </si>
   <si>
-    <t>95,12%</t>
+    <t>95,23%</t>
   </si>
   <si>
     <t>100%</t>
@@ -143,751 +143,763 @@
     <t>1,28%</t>
   </si>
   <si>
-    <t>2,59%</t>
+    <t>2,56%</t>
   </si>
   <si>
     <t>3,66%</t>
   </si>
   <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
   </si>
   <si>
     <t>2,72%</t>
   </si>
   <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
     <t>2,22%</t>
   </si>
   <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con problemas de nervios, depresión o trastorno mental en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
     <t>3,29%</t>
   </si>
   <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
   </si>
   <si>
     <t>96,71%</t>
   </si>
   <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares con personas con problemas de nervios, depresión o trastorno mental en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
+    <t>97,74%</t>
   </si>
   <si>
     <t>3,7%</t>
   </si>
   <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
   </si>
   <si>
     <t>3,11%</t>
   </si>
   <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
   </si>
   <si>
     <t>3,41%</t>
   </si>
   <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
   </si>
   <si>
     <t>96,3%</t>
   </si>
   <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
   </si>
   <si>
     <t>96,89%</t>
   </si>
   <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
   </si>
   <si>
     <t>96,59%</t>
   </si>
   <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
   </si>
   <si>
     <t>3,05%</t>
   </si>
   <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con problemas de nervios, depresión o trastorno mental en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
     <t>3,75%</t>
   </si>
   <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
   </si>
   <si>
     <t>96,25%</t>
   </si>
   <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con problemas de nervios, depresión o trastorno mental en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con problemas de nervios, depresión o trastorno mental en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
   </si>
   <si>
     <t>5,6%</t>
   </si>
   <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
   </si>
   <si>
     <t>94,4%</t>
   </si>
   <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
   </si>
   <si>
     <t>5,2%</t>
   </si>
   <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
   </si>
   <si>
     <t>94,8%</t>
   </si>
   <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con problemas de nervios, depresión o trastorno mental en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
     <t>90,1%</t>
   </si>
   <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
   </si>
   <si>
     <t>91,88%</t>
   </si>
   <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
   </si>
 </sst>
 </file>
@@ -1299,7 +1311,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A71D590-2D00-4484-8581-01B2428D7454}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88442BAC-AA54-4274-89A1-B2226FCB65F5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1626,7 +1638,7 @@
         <v>1618</v>
       </c>
       <c r="D8" s="7">
-        <v>1662306</v>
+        <v>1662305</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1677,7 +1689,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1936,7 +1948,7 @@
         <v>3124</v>
       </c>
       <c r="D14" s="7">
-        <v>3186739</v>
+        <v>3186740</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>77</v>
@@ -1966,7 +1978,7 @@
         <v>6272</v>
       </c>
       <c r="N14" s="7">
-        <v>6412133</v>
+        <v>6412132</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>44</v>
@@ -1987,7 +1999,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2017,7 +2029,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2050,7 +2062,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBD54B0-C874-405E-BF9A-1A1855E49DB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08976B41-CD7B-44FA-8DA9-3991AEFBF884}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2177,10 +2189,10 @@
         <v>87</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H4" s="7">
         <v>97</v>
@@ -2189,10 +2201,10 @@
         <v>101606</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>91</v>
@@ -2231,7 +2243,7 @@
         <v>96</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="H5" s="7">
         <v>1150</v>
@@ -2240,13 +2252,13 @@
         <v>1236190</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M5" s="7">
         <v>2018</v>
@@ -2642,10 +2654,10 @@
         <v>137</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H13" s="7">
         <v>166</v>
@@ -2654,10 +2666,10 @@
         <v>174454</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>141</v>
@@ -2696,7 +2708,7 @@
         <v>146</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="H14" s="7">
         <v>3128</v>
@@ -2705,13 +2717,13 @@
         <v>3379776</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="M14" s="7">
         <v>6232</v>
@@ -2801,7 +2813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B1CEB4-E8C7-40D1-B162-EC1D6B7C95B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA91224-00AB-4D4B-BE22-CEB494B60811}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3235,13 +3247,13 @@
         <v>16480</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -3250,13 +3262,13 @@
         <v>24614</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="M10" s="7">
         <v>36</v>
@@ -3265,13 +3277,13 @@
         <v>41094</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>138</v>
+        <v>195</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3286,7 +3298,7 @@
         <v>530406</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>197</v>
+        <v>64</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>198</v>
@@ -3304,10 +3316,10 @@
         <v>200</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>24</v>
+        <v>201</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M11" s="7">
         <v>991</v>
@@ -3316,13 +3328,13 @@
         <v>1054932</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>146</v>
+        <v>203</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3390,13 +3402,13 @@
         <v>153173</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>205</v>
+        <v>73</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H13" s="7">
         <v>354</v>
@@ -3405,10 +3417,10 @@
         <v>388395</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>209</v>
@@ -3423,10 +3435,10 @@
         <v>210</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3441,13 +3453,13 @@
         <v>3224445</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>214</v>
+        <v>82</v>
       </c>
       <c r="H14" s="7">
         <v>2972</v>
@@ -3462,7 +3474,7 @@
         <v>216</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>217</v>
+        <v>164</v>
       </c>
       <c r="M14" s="7">
         <v>6038</v>
@@ -3471,13 +3483,13 @@
         <v>6368150</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3552,7 +3564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{828A2D68-3011-463B-966C-9875390CAE73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651FCE8A-AA42-4FCD-8EC6-FC612A769856}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3679,7 +3691,7 @@
         <v>221</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>222</v>
@@ -3733,7 +3745,7 @@
         <v>230</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>101</v>
+        <v>219</v>
       </c>
       <c r="H5" s="7">
         <v>1270</v>
@@ -3834,10 +3846,10 @@
         <v>237</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>238</v>
+        <v>140</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>239</v>
+        <v>94</v>
       </c>
       <c r="H7" s="7">
         <v>190</v>
@@ -3846,13 +3858,13 @@
         <v>253880</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M7" s="7">
         <v>311</v>
@@ -3861,13 +3873,13 @@
         <v>384016</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3882,28 +3894,28 @@
         <v>2031886</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>247</v>
+        <v>101</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>248</v>
+        <v>148</v>
       </c>
       <c r="H8" s="7">
         <v>2731</v>
       </c>
       <c r="I8" s="7">
-        <v>1995641</v>
+        <v>1995640</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M8" s="7">
         <v>4602</v>
@@ -3912,13 +3924,13 @@
         <v>4027527</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3945,7 +3957,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249521</v>
+        <v>2249520</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3986,13 +3998,13 @@
         <v>25651</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>205</v>
+        <v>251</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H10" s="7">
         <v>35</v>
@@ -4001,13 +4013,13 @@
         <v>25440</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M10" s="7">
         <v>58</v>
@@ -4016,13 +4028,13 @@
         <v>51091</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,13 +4049,13 @@
         <v>647388</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>214</v>
+        <v>260</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H11" s="7">
         <v>969</v>
@@ -4052,13 +4064,13 @@
         <v>688446</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="M11" s="7">
         <v>1627</v>
@@ -4067,13 +4079,13 @@
         <v>1335835</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4141,13 +4153,13 @@
         <v>206505</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H13" s="7">
         <v>382</v>
@@ -4156,13 +4168,13 @@
         <v>376215</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>224</v>
+        <v>272</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M13" s="7">
         <v>585</v>
@@ -4171,13 +4183,13 @@
         <v>582721</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,16 +4201,16 @@
         <v>3161</v>
       </c>
       <c r="D14" s="7">
-        <v>3170189</v>
+        <v>3170190</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>188</v>
+        <v>279</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H14" s="7">
         <v>4970</v>
@@ -4207,28 +4219,28 @@
         <v>3423145</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>233</v>
+        <v>281</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="M14" s="7">
         <v>8131</v>
       </c>
       <c r="N14" s="7">
-        <v>6593333</v>
+        <v>6593334</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,7 +4252,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376694</v>
+        <v>3376695</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4270,7 +4282,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176054</v>
+        <v>7176055</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P2A_ner_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P2A_ner_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F0E1935-FD28-4A2F-9DD3-D9AA039CC0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EDE1A38-AC17-4913-ADE6-C4179BC8A3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C0A8022B-3DFD-4520-AC7E-AB6DEB36D843}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{23795939-E26A-4393-A474-54E5030E6F16}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="285">
   <si>
     <t>Hogares según si tienen personas con problemas de nervios, depresión o trastorno mental en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -83,24 +83,24 @@
     <t>5,84%</t>
   </si>
   <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
     <t>6,74%</t>
   </si>
   <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -113,22 +113,22 @@
     <t>96,66%</t>
   </si>
   <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
     <t>93,26%</t>
   </si>
   <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
+    <t>95,15%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,13 +137,13 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
   </si>
   <si>
     <t>3,66%</t>
@@ -155,537 +155,543 @@
     <t>4,63%</t>
   </si>
   <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con problemas de nervios, depresión o trastorno mental en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
     <t>2,72%</t>
   </si>
   <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
   </si>
   <si>
     <t>97,28%</t>
   </si>
   <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con problemas de nervios, depresión o trastorno mental en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
   </si>
   <si>
     <t>3,8%</t>
   </si>
   <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
   </si>
   <si>
     <t>96,2%</t>
   </si>
   <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con problemas de nervios, depresión o trastorno mental en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con problemas de nervios, depresión o trastorno mental en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
     <t>89,0%</t>
   </si>
   <si>
@@ -704,202 +710,190 @@
     <t>Hogares según si tienen personas con problemas de nervios, depresión o trastorno mental en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
   </si>
   <si>
     <t>6,46%</t>
   </si>
   <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
   </si>
   <si>
     <t>93,54%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
   </si>
 </sst>
 </file>
@@ -1311,7 +1305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88442BAC-AA54-4274-89A1-B2226FCB65F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F259B26B-B6F3-4F92-9DAD-8B1EF20DA08C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1444,10 +1438,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I4" s="7">
-        <v>88584</v>
+        <v>89735</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1459,10 +1453,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N4" s="7">
-        <v>134379</v>
+        <v>135529</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1495,10 +1489,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="I5" s="7">
-        <v>1226529</v>
+        <v>1225378</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1510,10 +1504,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="N5" s="7">
-        <v>2212457</v>
+        <v>2211306</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1564,7 +1558,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1584,10 +1578,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" s="7">
-        <v>31107</v>
+        <v>32222</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1614,10 +1608,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N7" s="7">
-        <v>89176</v>
+        <v>90290</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1635,10 +1629,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D8" s="7">
-        <v>1662305</v>
+        <v>1661191</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1665,10 +1659,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>3116</v>
+        <v>3115</v>
       </c>
       <c r="N8" s="7">
-        <v>3191910</v>
+        <v>3190796</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1689,7 +1683,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1894,10 +1888,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D13" s="7">
-        <v>89804</v>
+        <v>90919</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -1909,10 +1903,10 @@
         <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I13" s="7">
-        <v>153804</v>
+        <v>154955</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>72</v>
@@ -1924,19 +1918,19 @@
         <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N13" s="7">
-        <v>243608</v>
+        <v>245873</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1945,49 +1939,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>3124</v>
+        <v>3123</v>
       </c>
       <c r="D14" s="7">
-        <v>3186740</v>
+        <v>3185624</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>3148</v>
+        <v>3147</v>
       </c>
       <c r="I14" s="7">
-        <v>3225394</v>
+        <v>3224242</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>6272</v>
+        <v>6270</v>
       </c>
       <c r="N14" s="7">
-        <v>6412132</v>
+        <v>6409868</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1999,7 +1993,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2014,7 +2008,7 @@
         <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2029,7 +2023,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2043,7 +2037,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2062,7 +2056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08976B41-CD7B-44FA-8DA9-3991AEFBF884}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3152482-68BD-4239-815C-C010A2AE50B1}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2079,7 +2073,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2186,28 +2180,28 @@
         <v>43913</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H4" s="7">
         <v>97</v>
       </c>
       <c r="I4" s="7">
-        <v>101606</v>
+        <v>101607</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M4" s="7">
         <v>137</v>
@@ -2216,13 +2210,13 @@
         <v>145519</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2237,13 +2231,13 @@
         <v>930730</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="H5" s="7">
         <v>1150</v>
@@ -2258,7 +2252,7 @@
         <v>99</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M5" s="7">
         <v>2018</v>
@@ -2300,7 +2294,7 @@
         <v>1247</v>
       </c>
       <c r="I6" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2371,10 +2365,10 @@
         <v>101049</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>110</v>
@@ -2422,13 +2416,13 @@
         <v>3620711</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2574,7 +2568,7 @@
         <v>821</v>
       </c>
       <c r="N11" s="7">
-        <v>907739</v>
+        <v>907740</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>134</v>
@@ -2625,7 +2619,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2794,7 +2788,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2813,7 +2807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA91224-00AB-4D4B-BE22-CEB494B60811}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07FB6AC8-7386-40B3-866F-CDF5E5BDE40F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3325,7 +3319,7 @@
         <v>991</v>
       </c>
       <c r="N11" s="7">
-        <v>1054932</v>
+        <v>1054933</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>203</v>
@@ -3376,7 +3370,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3405,10 +3399,10 @@
         <v>206</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>73</v>
+        <v>207</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H13" s="7">
         <v>354</v>
@@ -3417,13 +3411,13 @@
         <v>388395</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>156</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M13" s="7">
         <v>503</v>
@@ -3432,13 +3426,13 @@
         <v>541568</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3453,13 +3447,13 @@
         <v>3224445</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>82</v>
+        <v>216</v>
       </c>
       <c r="H14" s="7">
         <v>2972</v>
@@ -3468,10 +3462,10 @@
         <v>3143705</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>164</v>
@@ -3483,13 +3477,13 @@
         <v>6368150</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3545,7 +3539,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3564,7 +3558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651FCE8A-AA42-4FCD-8EC6-FC612A769856}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37674002-56C0-4C8B-84C4-BDCDCB136441}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3581,7 +3575,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3682,49 +3676,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="D4" s="7">
-        <v>50719</v>
+        <v>24847</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H4" s="7">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c r="I4" s="7">
-        <v>96895</v>
+        <v>57245</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M4" s="7">
-        <v>216</v>
+        <v>138</v>
       </c>
       <c r="N4" s="7">
-        <v>147614</v>
+        <v>82092</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3733,49 +3727,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>632</v>
+        <v>658</v>
       </c>
       <c r="D5" s="7">
-        <v>490915</v>
+        <v>490091</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="H5" s="7">
-        <v>1270</v>
+        <v>1322</v>
       </c>
       <c r="I5" s="7">
-        <v>739058</v>
+        <v>698263</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="M5" s="7">
-        <v>1902</v>
+        <v>1980</v>
       </c>
       <c r="N5" s="7">
-        <v>1229972</v>
+        <v>1188354</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3787,7 +3781,7 @@
         <v>691</v>
       </c>
       <c r="D6" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3802,7 +3796,7 @@
         <v>1427</v>
       </c>
       <c r="I6" s="7">
-        <v>835953</v>
+        <v>755508</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3817,7 +3811,7 @@
         <v>2118</v>
       </c>
       <c r="N6" s="7">
-        <v>1377586</v>
+        <v>1270446</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3837,49 +3831,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="D7" s="7">
-        <v>130136</v>
+        <v>69751</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>237</v>
+        <v>137</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>94</v>
+        <v>242</v>
       </c>
       <c r="H7" s="7">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="I7" s="7">
-        <v>253880</v>
+        <v>287907</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="M7" s="7">
-        <v>311</v>
+        <v>201</v>
       </c>
       <c r="N7" s="7">
-        <v>384016</v>
+        <v>357658</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3888,49 +3882,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>1871</v>
+        <v>1924</v>
       </c>
       <c r="D8" s="7">
-        <v>2031886</v>
+        <v>2220576</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>244</v>
+        <v>145</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>101</v>
+        <v>249</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>148</v>
+        <v>250</v>
       </c>
       <c r="H8" s="7">
-        <v>2731</v>
+        <v>2788</v>
       </c>
       <c r="I8" s="7">
-        <v>1995640</v>
+        <v>1949916</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="M8" s="7">
-        <v>4602</v>
+        <v>4712</v>
       </c>
       <c r="N8" s="7">
-        <v>4027527</v>
+        <v>4170492</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,7 +3936,7 @@
         <v>1992</v>
       </c>
       <c r="D9" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3957,7 +3951,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249520</v>
+        <v>2237823</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3972,7 +3966,7 @@
         <v>4913</v>
       </c>
       <c r="N9" s="7">
-        <v>4411543</v>
+        <v>4528150</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3992,49 +3986,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D10" s="7">
-        <v>25651</v>
+        <v>17246</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="H10" s="7">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I10" s="7">
-        <v>25440</v>
+        <v>17975</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>254</v>
+        <v>109</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="M10" s="7">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="N10" s="7">
-        <v>51091</v>
+        <v>35220</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>259</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4043,49 +4037,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="D11" s="7">
-        <v>647388</v>
+        <v>629377</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="H11" s="7">
-        <v>969</v>
+        <v>977</v>
       </c>
       <c r="I11" s="7">
-        <v>688446</v>
+        <v>642488</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>263</v>
+        <v>117</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M11" s="7">
-        <v>1627</v>
+        <v>1641</v>
       </c>
       <c r="N11" s="7">
-        <v>1335835</v>
+        <v>1271866</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>267</v>
+        <v>216</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,7 +4091,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4112,7 +4106,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4127,7 +4121,7 @@
         <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4147,46 +4141,46 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>203</v>
+        <v>118</v>
       </c>
       <c r="D13" s="7">
-        <v>206505</v>
+        <v>111843</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>269</v>
+        <v>76</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H13" s="7">
-        <v>382</v>
+        <v>265</v>
       </c>
       <c r="I13" s="7">
-        <v>376215</v>
+        <v>363127</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M13" s="7">
-        <v>585</v>
+        <v>383</v>
       </c>
       <c r="N13" s="7">
-        <v>582721</v>
+        <v>474971</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>276</v>
+        <v>195</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>277</v>
@@ -4198,49 +4192,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>3161</v>
+        <v>3246</v>
       </c>
       <c r="D14" s="7">
-        <v>3170190</v>
+        <v>3340046</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>5087</v>
+      </c>
+      <c r="I14" s="7">
+        <v>3290667</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="H14" s="7">
-        <v>4970</v>
-      </c>
-      <c r="I14" s="7">
-        <v>3423145</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>8333</v>
+      </c>
+      <c r="N14" s="7">
+        <v>6630712</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="M14" s="7">
-        <v>8131</v>
-      </c>
-      <c r="N14" s="7">
-        <v>6593334</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>285</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,7 +4246,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376695</v>
+        <v>3451889</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4267,7 +4261,7 @@
         <v>5352</v>
       </c>
       <c r="I15" s="7">
-        <v>3799360</v>
+        <v>3653794</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4282,7 +4276,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176055</v>
+        <v>7105683</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4296,7 +4290,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
